--- a/ANN_Stopping_Grid/Data3/Optimised_Networks/Predictions/BEST/2_4-8_152_0.006_300 predictions_manual_online 6 BEST.xlsx
+++ b/ANN_Stopping_Grid/Data3/Optimised_Networks/Predictions/BEST/2_4-8_152_0.006_300 predictions_manual_online 6 BEST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\ANN_Stopping_Grid\Data3\Optimised_Networks\Predictions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\ANN_Stopping_Grid\Data3\Optimised_Networks\Predictions\BEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E440C3-44C0-45CB-A79A-2C04B72869A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84611967-B443-495E-BC60-1D9453F71F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2804,7 +2805,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[3]Sheet1!$I$2:$I$14</c:f>
+              <c:f>Sheet1!$I$15:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2935,7 +2936,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[3]Sheet1!$I$2:$I$14</c:f>
+              <c:f>Sheet1!$I$15:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -7539,15 +7540,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>533977</xdr:colOff>
+      <xdr:colOff>533976</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>28863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>148246</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>82832</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>497896</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>96178</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7852,6 +7853,189 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="I2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="I3">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="I7">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="I8">
+            <v>72</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="I9">
+            <v>84</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="I10">
+            <v>96</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="I11">
+            <v>108</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="I12">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="I13">
+            <v>132</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="I14">
+            <v>144</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>783.5</v>
+          </cell>
+          <cell r="K15">
+            <v>783.5</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>717.93643259472537</v>
+          </cell>
+          <cell r="K16">
+            <v>759.6</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>687.17072242845916</v>
+          </cell>
+          <cell r="K17">
+            <v>619.20000000000005</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>538.35146762638487</v>
+          </cell>
+          <cell r="K18">
+            <v>581.4</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>494.47843941914022</v>
+          </cell>
+          <cell r="K19">
+            <v>463.6</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>385.04436510419009</v>
+          </cell>
+          <cell r="K20">
+            <v>419.9</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>554.71467142868596</v>
+          </cell>
+          <cell r="K21">
+            <v>587.70000000000005</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>984.13866470728635</v>
+          </cell>
+          <cell r="K22">
+            <v>859.7</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>1242.953645089282</v>
+          </cell>
+          <cell r="K23">
+            <v>1089.5999999999999</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>1402.801204262081</v>
+          </cell>
+          <cell r="K24">
+            <v>1372.4</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>1586.1931845853901</v>
+          </cell>
+          <cell r="K25">
+            <v>1612.9</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>1728.2501164617361</v>
+          </cell>
+          <cell r="K26">
+            <v>1848.7</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>1878.1957746070159</v>
+          </cell>
+          <cell r="K27">
+            <v>2128.9</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8140,7 +8324,7 @@
   <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="AI41" sqref="AI41"/>
+      <selection activeCell="Y31" sqref="Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9179,129 +9363,129 @@
         <v>0</v>
       </c>
       <c r="Y30" s="7">
-        <f t="shared" ref="Y30:Z42" si="0">ABS((K15-C15)/K15)</f>
+        <f>ABS((K15-C15)/K15)</f>
         <v>0</v>
       </c>
       <c r="Z30" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f>ABS((L15-D15)/L15)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="18.75">
       <c r="S31" s="7">
-        <f t="shared" ref="S31:S41" si="1">ABS((J3-B3)/J3)</f>
+        <f>ABS((J3-B3)/J3)</f>
         <v>8.9149860311871082E-2</v>
       </c>
       <c r="T31" s="7">
-        <f t="shared" ref="T31:T38" si="2">ABS((K3-C3)/K3)</f>
+        <f>ABS((K3-C3)/K3)</f>
         <v>4.3149263598712642E-2</v>
       </c>
       <c r="U31" s="7">
-        <f t="shared" ref="U31:U42" si="3">ABS((L3-D3)/L3)</f>
+        <f t="shared" ref="U31:U42" si="0">ABS((L3-D3)/L3)</f>
         <v>0.36960522763911807</v>
       </c>
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7">
-        <f t="shared" ref="X31:X42" si="4">ABS((J16-B16)/J16)</f>
+        <f t="shared" ref="X31:X42" si="1">ABS((J16-B16)/J16)</f>
         <v>0.22934129705063616</v>
       </c>
       <c r="Y31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Y30:Z42" si="2">ABS((K16-C16)/K16)</f>
         <v>5.4849351507733866E-2</v>
       </c>
       <c r="Z31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.38993900929477376</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="18.75">
       <c r="S32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S32:S41" si="3">ABS((J4-B4)/J4)</f>
         <v>3.9446980287014696E-2</v>
       </c>
       <c r="T32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="T31:T38" si="4">ABS((K4-C4)/K4)</f>
         <v>9.0437769122488298E-2</v>
       </c>
       <c r="U32" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5.6894521894862313E-2</v>
       </c>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1.821727156008186E-2</v>
       </c>
       <c r="Y32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.10977183854725309</v>
       </c>
       <c r="Z32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.8754770970021577E-2</v>
       </c>
     </row>
     <row r="33" spans="18:26" ht="18.75">
       <c r="S33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0041387896482902E-2</v>
       </c>
       <c r="T33" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0202088945817048E-2</v>
       </c>
       <c r="U33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.6211341061470934E-2</v>
       </c>
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5.0172906150948632E-2</v>
       </c>
       <c r="Y33" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4042883339551266E-2</v>
       </c>
       <c r="Z33" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9992184858040915E-2</v>
       </c>
     </row>
     <row r="34" spans="18:26" ht="18.75">
       <c r="S34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.550439875289243E-2</v>
       </c>
       <c r="T34" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.13043973406503642</v>
       </c>
       <c r="U34" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.0685165460553096E-2</v>
       </c>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2.2000408517238862E-2</v>
       </c>
       <c r="Y34" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.6605779592623357E-2</v>
       </c>
       <c r="Z34" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.7194761398662409E-2</v>
       </c>
     </row>
     <row r="35" spans="18:26" ht="18.75">
       <c r="S35" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.3629922933609682E-2</v>
       </c>
       <c r="T35" s="7">
@@ -9309,111 +9493,111 @@
         <v>0.21780330736178091</v>
       </c>
       <c r="U35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9.5251502107735215E-3</v>
       </c>
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
       <c r="X35" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>8.3458544008694457E-2</v>
       </c>
       <c r="Y35" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.3009371030745141E-2</v>
       </c>
       <c r="Z35" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5297500625591145E-2</v>
       </c>
     </row>
     <row r="36" spans="18:26" ht="18.75">
       <c r="S36" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.9088216093018827E-2</v>
       </c>
       <c r="T36" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.21341122700864973</v>
       </c>
       <c r="U36" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>3.643474549302738E-2</v>
       </c>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1.8348534503627396E-2</v>
       </c>
       <c r="Y36" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.6126133352584789E-2</v>
       </c>
       <c r="Z36" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.6975968633360203E-2</v>
       </c>
     </row>
     <row r="37" spans="18:26" ht="18.75">
       <c r="S37" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.5951212810618602E-3</v>
       </c>
       <c r="T37" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.3039067888186543E-2</v>
       </c>
       <c r="U37" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.421179165809937E-2</v>
       </c>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1.2194983660842183E-2</v>
       </c>
       <c r="Y37" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.14474661475780656</v>
       </c>
       <c r="Z37" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.4610377025456512E-2</v>
       </c>
     </row>
     <row r="38" spans="18:26" ht="18.75">
       <c r="S38" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.9018959755766863E-2</v>
       </c>
       <c r="T38" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5710914795271189E-2</v>
       </c>
       <c r="U38" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.5957335568510782E-2</v>
       </c>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3.375521935540142E-2</v>
       </c>
       <c r="Y38" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.14074306634478898</v>
       </c>
       <c r="Z38" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.4055922082634758E-3</v>
       </c>
     </row>
     <row r="39" spans="18:26" ht="18.75">
       <c r="S39" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6371780965510188E-2</v>
       </c>
       <c r="T39" s="7">
@@ -9421,27 +9605,27 @@
         <v>2.1931930320743449E-3</v>
       </c>
       <c r="U39" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.4744044769019922E-3</v>
       </c>
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
       <c r="X39" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2.5312831883232523E-2</v>
       </c>
       <c r="Y39" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.2151853877937121E-2</v>
       </c>
       <c r="Z39" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6697801698427684E-2</v>
       </c>
     </row>
     <row r="40" spans="18:26" ht="18.75">
       <c r="S40" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.1541215584547505E-3</v>
       </c>
       <c r="T40" s="7">
@@ -9449,49 +9633,49 @@
         <v>5.7654743472901358E-2</v>
       </c>
       <c r="U40" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1.0658057948017271E-2</v>
       </c>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
       <c r="X40" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1.233983415627323E-2</v>
       </c>
       <c r="Y40" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.6558258673575542E-2</v>
       </c>
       <c r="Z40" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.054011784181547E-2</v>
       </c>
     </row>
     <row r="41" spans="18:26" ht="18.75">
       <c r="S41" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3849129638957775E-3</v>
       </c>
       <c r="T41" s="7">
-        <f t="shared" si="5"/>
+        <f>ABS((K13-C13)/K13)</f>
         <v>3.4817709914326242E-2</v>
       </c>
       <c r="U41" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4.3248815724088834E-3</v>
       </c>
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
       <c r="X41" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2.4898884054013404E-2</v>
       </c>
       <c r="Y41" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.5153828927497145E-2</v>
       </c>
       <c r="Z41" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6633981113669658E-2</v>
       </c>
     </row>
@@ -9505,21 +9689,21 @@
         <v>1.4404812674285609E-2</v>
       </c>
       <c r="U42" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>7.7093948977525887E-4</v>
       </c>
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
       <c r="X42" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1.4384364062116874E-2</v>
       </c>
       <c r="Y42" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.11776233049602339</v>
       </c>
       <c r="Z42" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.6022109531705762E-3</v>
       </c>
     </row>
@@ -9528,12 +9712,12 @@
         <v>5</v>
       </c>
       <c r="S43" s="7">
-        <f>( SUM(S31:S41)/12)*100</f>
-        <v>2.1865471899964914</v>
+        <f>( SUM(S31:S42)/12)*100</f>
+        <v>2.3495842061177736</v>
       </c>
       <c r="T43" s="7">
-        <f>( SUM(T31:T41)/12)*100</f>
-        <v>7.4071584933770387</v>
+        <f>( SUM(T31:T42)/12)*100</f>
+        <v>7.5271985989960859</v>
       </c>
       <c r="U43" s="7">
         <f>( SUM(U31:U41)/12)*100</f>
@@ -9542,16 +9726,16 @@
       <c r="V43" s="7"/>
       <c r="W43" s="7"/>
       <c r="X43" s="7">
-        <f t="shared" ref="X43:Z43" si="6">( SUM(X31:X41)/12)*100</f>
-        <v>4.417005957508251</v>
+        <f>( SUM(X31:X42)/12)*100</f>
+        <v>4.5368756580258918</v>
       </c>
       <c r="Y43" s="7">
-        <f t="shared" si="6"/>
-        <v>6.947991499600807</v>
+        <f>( SUM(Y31:Y42)/12)*100</f>
+        <v>7.9293442537343344</v>
       </c>
       <c r="Z43" s="7">
-        <f t="shared" si="6"/>
-        <v>6.7003505472340228</v>
+        <f>( SUM(Z31:Z42)/12)*100</f>
+        <v>6.7637023051771124</v>
       </c>
     </row>
   </sheetData>

--- a/ANN_Stopping_Grid/Data3/Optimised_Networks/Predictions/BEST/2_4-8_152_0.006_300 predictions_manual_online 6 BEST.xlsx
+++ b/ANN_Stopping_Grid/Data3/Optimised_Networks/Predictions/BEST/2_4-8_152_0.006_300 predictions_manual_online 6 BEST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\ANN_Stopping_Grid\Data3\Optimised_Networks\Predictions\BEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84611967-B443-495E-BC60-1D9453F71F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BB5173-30FC-452F-95D9-05E63459B6C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -7853,189 +7852,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="I2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="I3">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="I4">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="I5">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="I6">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="I7">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="I8">
-            <v>72</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="I9">
-            <v>84</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="I10">
-            <v>96</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="I11">
-            <v>108</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="I12">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="I13">
-            <v>132</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="I14">
-            <v>144</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>783.5</v>
-          </cell>
-          <cell r="K15">
-            <v>783.5</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>717.93643259472537</v>
-          </cell>
-          <cell r="K16">
-            <v>759.6</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>687.17072242845916</v>
-          </cell>
-          <cell r="K17">
-            <v>619.20000000000005</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>538.35146762638487</v>
-          </cell>
-          <cell r="K18">
-            <v>581.4</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>494.47843941914022</v>
-          </cell>
-          <cell r="K19">
-            <v>463.6</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>385.04436510419009</v>
-          </cell>
-          <cell r="K20">
-            <v>419.9</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>554.71467142868596</v>
-          </cell>
-          <cell r="K21">
-            <v>587.70000000000005</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>984.13866470728635</v>
-          </cell>
-          <cell r="K22">
-            <v>859.7</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>1242.953645089282</v>
-          </cell>
-          <cell r="K23">
-            <v>1089.5999999999999</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>1402.801204262081</v>
-          </cell>
-          <cell r="K24">
-            <v>1372.4</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>1586.1931845853901</v>
-          </cell>
-          <cell r="K25">
-            <v>1612.9</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>1728.2501164617361</v>
-          </cell>
-          <cell r="K26">
-            <v>1848.7</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>1878.1957746070159</v>
-          </cell>
-          <cell r="K27">
-            <v>2128.9</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8323,7 +8139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
       <selection activeCell="Y31" sqref="Y31"/>
     </sheetView>
   </sheetViews>
@@ -9391,7 +9207,7 @@
         <v>0.22934129705063616</v>
       </c>
       <c r="Y31" s="7">
-        <f t="shared" ref="Y30:Z42" si="2">ABS((K16-C16)/K16)</f>
+        <f t="shared" ref="Y31:Z42" si="2">ABS((K16-C16)/K16)</f>
         <v>5.4849351507733866E-2</v>
       </c>
       <c r="Z31" s="7">
@@ -9405,7 +9221,7 @@
         <v>3.9446980287014696E-2</v>
       </c>
       <c r="T32" s="7">
-        <f t="shared" ref="T31:T38" si="4">ABS((K4-C4)/K4)</f>
+        <f t="shared" ref="T32:T38" si="4">ABS((K4-C4)/K4)</f>
         <v>9.0437769122488298E-2</v>
       </c>
       <c r="U32" s="7">
@@ -9629,7 +9445,7 @@
         <v>4.1541215584547505E-3</v>
       </c>
       <c r="T40" s="7">
-        <f t="shared" ref="T40:T41" si="5">ABS((K12-C12)/K12)</f>
+        <f t="shared" ref="T40" si="5">ABS((K12-C12)/K12)</f>
         <v>5.7654743472901358E-2</v>
       </c>
       <c r="U40" s="7">
